--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/Orbis/orbis_tools/orbis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="85" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FA0E64-B742-4563-AC1D-86C7F2E6BF5C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FA0E64-B742-4563-AC1D-86C7F2E6BF5C}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F141C444-FC36-4E18-8AF8-DEC33361F394}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="4395" windowWidth="28800" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$150</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,377 +888,377 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -1308,13 +1308,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -1392,1590 +1392,1590 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" t="s">
         <v>117</v>
       </c>
-      <c r="B124" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" t="s">
-        <v>40</v>
-      </c>
       <c r="D124" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
         <v>118</v>
       </c>
-      <c r="B125" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" t="s">
-        <v>153</v>
-      </c>
       <c r="D125" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D127" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C129" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D130" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D137" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D138" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D139" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C140" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D140" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C141" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D141" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D142" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D143" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D146" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D147" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C150" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D150" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:D150" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="A1:A150"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F141C444-FC36-4E18-8AF8-DEC33361F394}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAC39EC-3681-487B-9768-11E5D52F81C4}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4395" windowWidth="28800" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29490" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAC39EC-3681-487B-9768-11E5D52F81C4}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5434116-813D-4DE2-8AB8-C734A0F3D298}"/>
   <bookViews>
-    <workbookView xWindow="-29490" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="179">
   <si>
     <t>Data Product</t>
   </si>
@@ -494,6 +494,72 @@
   </si>
   <si>
     <t>orbis_monthly_insurances_global_financials_and_ratios_usd</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>4IkCtFdHQPWbmepjtM8sAg</t>
+  </si>
+  <si>
+    <t>F10fuyELQIWJ0xUZFX9PEA</t>
+  </si>
+  <si>
+    <t>M4VxemTETrCKVKPtlDQkug</t>
+  </si>
+  <si>
+    <t>MxJrQ80yS3CRHXJiwcHPyA</t>
+  </si>
+  <si>
+    <t>N3O5QLqCSLOrgIRuLGeRKg</t>
+  </si>
+  <si>
+    <t>TgodVjAWQlCXNaMqMkGgeQ</t>
+  </si>
+  <si>
+    <t>eC4wcG4bRyilw3esj0rTew</t>
+  </si>
+  <si>
+    <t>fWwFDwkBRVus495lXLhe7A</t>
+  </si>
+  <si>
+    <t>ftuRGE3ETlyiLsHzyKc14Q</t>
+  </si>
+  <si>
+    <t>gXrWB4HsRUimDvetvT902g</t>
+  </si>
+  <si>
+    <t>lKH5NrLSSminyxeZclkl3g</t>
+  </si>
+  <si>
+    <t>mkV2lyMmRdW7p3oL0niu7g</t>
+  </si>
+  <si>
+    <t>nfTnk8GaSzGxopR3OBMRTA</t>
+  </si>
+  <si>
+    <t>qqu4Es9ZTIiuZ08ZiK804Q</t>
+  </si>
+  <si>
+    <t>tyPJDIw4QtezBGgp7XchkA</t>
+  </si>
+  <si>
+    <t>wONblFVDTjuX8tA4xEn8hA</t>
+  </si>
+  <si>
+    <t>y3XY7hXPQHiKyrMirzjyAg</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>hTgZaVzQSTWVkIRfgGyrMQ</t>
+  </si>
+  <si>
+    <t>mqO4CUwDQYW8IVCJRaJJ7Q</t>
   </si>
 </sst>
 </file>
@@ -528,7 +594,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -551,13 +617,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -862,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +953,7 @@
     <col min="4" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,8 +963,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -899,8 +980,11 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -913,8 +997,11 @@
       <c r="D3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -927,8 +1014,11 @@
       <c r="D4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -941,8 +1031,11 @@
       <c r="D5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -955,8 +1048,11 @@
       <c r="D6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -969,8 +1065,11 @@
       <c r="D7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -983,8 +1082,11 @@
       <c r="D8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -997,8 +1099,11 @@
       <c r="D9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1011,8 +1116,11 @@
       <c r="D10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1025,8 +1133,11 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1039,8 +1150,11 @@
       <c r="D12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1053,8 +1167,11 @@
       <c r="D13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1067,8 +1184,11 @@
       <c r="D14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1081,8 +1201,11 @@
       <c r="D15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1095,8 +1218,11 @@
       <c r="D16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1109,8 +1235,11 @@
       <c r="D17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1123,8 +1252,11 @@
       <c r="D18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1137,8 +1269,11 @@
       <c r="D19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1151,8 +1286,11 @@
       <c r="D20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1165,8 +1303,11 @@
       <c r="D21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1179,8 +1320,11 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1193,8 +1337,11 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1207,8 +1354,11 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1221,8 +1371,11 @@
       <c r="D25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1235,8 +1388,11 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1249,8 +1405,11 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1263,8 +1422,11 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1277,8 +1439,11 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1291,8 +1456,11 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1305,8 +1473,11 @@
       <c r="D31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1319,8 +1490,11 @@
       <c r="D32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1333,8 +1507,11 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1347,8 +1524,11 @@
       <c r="D34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1361,8 +1541,11 @@
       <c r="D35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1375,8 +1558,11 @@
       <c r="D36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1389,8 +1575,11 @@
       <c r="D37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1403,8 +1592,11 @@
       <c r="D38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1417,8 +1609,11 @@
       <c r="D39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1431,8 +1626,11 @@
       <c r="D40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1445,8 +1643,11 @@
       <c r="D41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1459,8 +1660,11 @@
       <c r="D42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1473,8 +1677,11 @@
       <c r="D43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1487,8 +1694,11 @@
       <c r="D44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1501,8 +1711,11 @@
       <c r="D45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1515,8 +1728,11 @@
       <c r="D46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1529,8 +1745,11 @@
       <c r="D47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1543,8 +1762,11 @@
       <c r="D48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1557,8 +1779,11 @@
       <c r="D49" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1571,8 +1796,11 @@
       <c r="D50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1585,8 +1813,11 @@
       <c r="D51" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1599,8 +1830,11 @@
       <c r="D52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1613,8 +1847,11 @@
       <c r="D53" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1627,8 +1864,11 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1641,8 +1881,11 @@
       <c r="D55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1655,8 +1898,11 @@
       <c r="D56" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1669,8 +1915,11 @@
       <c r="D57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1683,8 +1932,11 @@
       <c r="D58" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1697,8 +1949,11 @@
       <c r="D59" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1711,8 +1966,11 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1725,8 +1983,11 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1739,8 +2000,11 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1753,8 +2017,11 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1767,8 +2034,11 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1781,8 +2051,11 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1795,8 +2068,11 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1809,8 +2085,11 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1823,8 +2102,11 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1837,8 +2119,11 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1851,8 +2136,11 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1865,8 +2153,11 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1879,8 +2170,11 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1893,8 +2187,11 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1907,8 +2204,11 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1921,8 +2221,11 @@
       <c r="D75" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1935,8 +2238,11 @@
       <c r="D76" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1949,8 +2255,11 @@
       <c r="D77" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1963,8 +2272,11 @@
       <c r="D78" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1977,8 +2289,11 @@
       <c r="D79" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1991,8 +2306,11 @@
       <c r="D80" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2005,8 +2323,11 @@
       <c r="D81" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2019,8 +2340,11 @@
       <c r="D82" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2033,8 +2357,11 @@
       <c r="D83" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2047,8 +2374,11 @@
       <c r="D84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2061,8 +2391,11 @@
       <c r="D85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2075,8 +2408,11 @@
       <c r="D86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2089,8 +2425,11 @@
       <c r="D87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2103,8 +2442,11 @@
       <c r="D88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2117,8 +2459,11 @@
       <c r="D89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2131,8 +2476,11 @@
       <c r="D90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2145,8 +2493,11 @@
       <c r="D91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2159,8 +2510,11 @@
       <c r="D92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2173,8 +2527,11 @@
       <c r="D93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2187,8 +2544,11 @@
       <c r="D94" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2201,8 +2561,11 @@
       <c r="D95" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2215,8 +2578,11 @@
       <c r="D96" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2229,8 +2595,11 @@
       <c r="D97" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2243,8 +2612,11 @@
       <c r="D98" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2257,8 +2629,11 @@
       <c r="D99" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2271,8 +2646,11 @@
       <c r="D100" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2285,8 +2663,11 @@
       <c r="D101" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2299,8 +2680,11 @@
       <c r="D102" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2313,8 +2697,11 @@
       <c r="D103" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2327,8 +2714,11 @@
       <c r="D104" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2341,8 +2731,11 @@
       <c r="D105" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2355,8 +2748,11 @@
       <c r="D106" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2369,8 +2765,11 @@
       <c r="D107" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2383,8 +2782,11 @@
       <c r="D108" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2397,8 +2799,11 @@
       <c r="D109" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2411,8 +2816,11 @@
       <c r="D110" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2425,8 +2833,11 @@
       <c r="D111" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2439,8 +2850,11 @@
       <c r="D112" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2453,8 +2867,11 @@
       <c r="D113" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2467,8 +2884,11 @@
       <c r="D114" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2481,8 +2901,11 @@
       <c r="D115" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2495,8 +2918,11 @@
       <c r="D116" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2509,8 +2935,11 @@
       <c r="D117" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2523,8 +2952,11 @@
       <c r="D118" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2537,8 +2969,11 @@
       <c r="D119" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2551,8 +2986,11 @@
       <c r="D120" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2565,8 +3003,11 @@
       <c r="D121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2579,8 +3020,11 @@
       <c r="D122" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2593,8 +3037,11 @@
       <c r="D123" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2607,8 +3054,11 @@
       <c r="D124" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2621,8 +3071,11 @@
       <c r="D125" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2635,8 +3088,11 @@
       <c r="D126" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2649,8 +3105,11 @@
       <c r="D127" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2663,8 +3122,11 @@
       <c r="D128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2677,8 +3139,11 @@
       <c r="D129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2691,8 +3156,11 @@
       <c r="D130" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2705,8 +3173,11 @@
       <c r="D131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2719,8 +3190,11 @@
       <c r="D132" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2733,8 +3207,11 @@
       <c r="D133" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2747,8 +3224,11 @@
       <c r="D134" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2761,8 +3241,11 @@
       <c r="D135" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2775,8 +3258,11 @@
       <c r="D136" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2789,8 +3275,11 @@
       <c r="D137" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2803,8 +3292,11 @@
       <c r="D138" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2817,8 +3309,11 @@
       <c r="D139" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2831,8 +3326,11 @@
       <c r="D140" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2845,8 +3343,11 @@
       <c r="D141" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2859,8 +3360,11 @@
       <c r="D142" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2873,8 +3377,11 @@
       <c r="D143" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2887,8 +3394,11 @@
       <c r="D144" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2901,8 +3411,11 @@
       <c r="D145" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2915,8 +3428,11 @@
       <c r="D146" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2929,8 +3445,11 @@
       <c r="D147" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2943,8 +3462,11 @@
       <c r="D148" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2957,8 +3479,11 @@
       <c r="D149" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2971,13 +3496,2545 @@
       <c r="D150" t="s">
         <v>70</v>
       </c>
+      <c r="E150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" t="s">
+        <v>116</v>
+      </c>
+      <c r="D157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" t="s">
+        <v>161</v>
+      </c>
+      <c r="E159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" t="s">
+        <v>119</v>
+      </c>
+      <c r="D160" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161" t="s">
+        <v>161</v>
+      </c>
+      <c r="E161" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" t="s">
+        <v>162</v>
+      </c>
+      <c r="E162" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" t="s">
+        <v>71</v>
+      </c>
+      <c r="D163" t="s">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>68</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" t="s">
+        <v>162</v>
+      </c>
+      <c r="E164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" t="s">
+        <v>162</v>
+      </c>
+      <c r="E165" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166" t="s">
+        <v>162</v>
+      </c>
+      <c r="E166" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>68</v>
+      </c>
+      <c r="C167" t="s">
+        <v>75</v>
+      </c>
+      <c r="D167" t="s">
+        <v>162</v>
+      </c>
+      <c r="E167" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" t="s">
+        <v>162</v>
+      </c>
+      <c r="E168" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" t="s">
+        <v>77</v>
+      </c>
+      <c r="D169" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>68</v>
+      </c>
+      <c r="C170" t="s">
+        <v>78</v>
+      </c>
+      <c r="D170" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>68</v>
+      </c>
+      <c r="C172" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>68</v>
+      </c>
+      <c r="C173" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>68</v>
+      </c>
+      <c r="C174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" t="s">
+        <v>85</v>
+      </c>
+      <c r="D177" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>162</v>
+      </c>
+      <c r="E178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>68</v>
+      </c>
+      <c r="C179" t="s">
+        <v>87</v>
+      </c>
+      <c r="D179" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" t="s">
+        <v>100</v>
+      </c>
+      <c r="D181" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>99</v>
+      </c>
+      <c r="C182" t="s">
+        <v>102</v>
+      </c>
+      <c r="D182" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>99</v>
+      </c>
+      <c r="C183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>99</v>
+      </c>
+      <c r="C184" t="s">
+        <v>104</v>
+      </c>
+      <c r="D184" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>165</v>
+      </c>
+      <c r="E186" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>165</v>
+      </c>
+      <c r="E187" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>165</v>
+      </c>
+      <c r="E191" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>165</v>
+      </c>
+      <c r="E194" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>91</v>
+      </c>
+      <c r="C195" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" t="s">
+        <v>166</v>
+      </c>
+      <c r="E195" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>91</v>
+      </c>
+      <c r="C196" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" t="s">
+        <v>166</v>
+      </c>
+      <c r="E196" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>91</v>
+      </c>
+      <c r="C197" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" t="s">
+        <v>166</v>
+      </c>
+      <c r="E197" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" t="s">
+        <v>166</v>
+      </c>
+      <c r="E198" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>91</v>
+      </c>
+      <c r="C199" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199" t="s">
+        <v>166</v>
+      </c>
+      <c r="E199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200" t="s">
+        <v>98</v>
+      </c>
+      <c r="D200" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" t="s">
+        <v>167</v>
+      </c>
+      <c r="E201" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>49</v>
+      </c>
+      <c r="C202" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" t="s">
+        <v>53</v>
+      </c>
+      <c r="D203" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>49</v>
+      </c>
+      <c r="C204" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" t="s">
+        <v>167</v>
+      </c>
+      <c r="E204" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" t="s">
+        <v>55</v>
+      </c>
+      <c r="D205" t="s">
+        <v>167</v>
+      </c>
+      <c r="E205" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" t="s">
+        <v>167</v>
+      </c>
+      <c r="E206" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" t="s">
+        <v>167</v>
+      </c>
+      <c r="E207" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" t="s">
+        <v>167</v>
+      </c>
+      <c r="E208" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>49</v>
+      </c>
+      <c r="C209" t="s">
+        <v>59</v>
+      </c>
+      <c r="D209" t="s">
+        <v>167</v>
+      </c>
+      <c r="E209" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>140</v>
+      </c>
+      <c r="C210" t="s">
+        <v>105</v>
+      </c>
+      <c r="D210" t="s">
+        <v>168</v>
+      </c>
+      <c r="E210" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>140</v>
+      </c>
+      <c r="C211" t="s">
+        <v>107</v>
+      </c>
+      <c r="D211" t="s">
+        <v>168</v>
+      </c>
+      <c r="E211" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>140</v>
+      </c>
+      <c r="C212" t="s">
+        <v>108</v>
+      </c>
+      <c r="D212" t="s">
+        <v>168</v>
+      </c>
+      <c r="E212" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>140</v>
+      </c>
+      <c r="C213" t="s">
+        <v>109</v>
+      </c>
+      <c r="D213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E213" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>140</v>
+      </c>
+      <c r="C214" t="s">
+        <v>110</v>
+      </c>
+      <c r="D214" t="s">
+        <v>168</v>
+      </c>
+      <c r="E214" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" t="s">
+        <v>169</v>
+      </c>
+      <c r="E215" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>144</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>170</v>
+      </c>
+      <c r="E216" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>170</v>
+      </c>
+      <c r="E217" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>144</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>170</v>
+      </c>
+      <c r="E218" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>144</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>170</v>
+      </c>
+      <c r="E219" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>144</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>170</v>
+      </c>
+      <c r="E220" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>144</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>170</v>
+      </c>
+      <c r="E221" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>144</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>170</v>
+      </c>
+      <c r="E222" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>144</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>170</v>
+      </c>
+      <c r="E223" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>144</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s">
+        <v>170</v>
+      </c>
+      <c r="E224" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>144</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" t="s">
+        <v>170</v>
+      </c>
+      <c r="E225" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" t="s">
+        <v>65</v>
+      </c>
+      <c r="D226" t="s">
+        <v>171</v>
+      </c>
+      <c r="E226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C227" t="s">
+        <v>67</v>
+      </c>
+      <c r="D227" t="s">
+        <v>171</v>
+      </c>
+      <c r="E227" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>139</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>172</v>
+      </c>
+      <c r="E228" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" t="s">
+        <v>172</v>
+      </c>
+      <c r="E229" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>139</v>
+      </c>
+      <c r="C230" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" t="s">
+        <v>172</v>
+      </c>
+      <c r="E230" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" t="s">
+        <v>172</v>
+      </c>
+      <c r="E231" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>139</v>
+      </c>
+      <c r="C232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>172</v>
+      </c>
+      <c r="E232" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" t="s">
+        <v>172</v>
+      </c>
+      <c r="E233" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>139</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s">
+        <v>172</v>
+      </c>
+      <c r="E234" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>139</v>
+      </c>
+      <c r="C235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D235" t="s">
+        <v>172</v>
+      </c>
+      <c r="E235" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" t="s">
+        <v>172</v>
+      </c>
+      <c r="E236" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>139</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" t="s">
+        <v>172</v>
+      </c>
+      <c r="E237" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>139</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>172</v>
+      </c>
+      <c r="E238" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>139</v>
+      </c>
+      <c r="C239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" t="s">
+        <v>172</v>
+      </c>
+      <c r="E239" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>139</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>172</v>
+      </c>
+      <c r="E240" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>139</v>
+      </c>
+      <c r="C241" t="s">
+        <v>29</v>
+      </c>
+      <c r="D241" t="s">
+        <v>172</v>
+      </c>
+      <c r="E241" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" t="s">
+        <v>172</v>
+      </c>
+      <c r="E242" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>142</v>
+      </c>
+      <c r="C243" t="s">
+        <v>35</v>
+      </c>
+      <c r="D243" t="s">
+        <v>173</v>
+      </c>
+      <c r="E243" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>142</v>
+      </c>
+      <c r="C244" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" t="s">
+        <v>173</v>
+      </c>
+      <c r="E244" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>142</v>
+      </c>
+      <c r="C245" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245" t="s">
+        <v>173</v>
+      </c>
+      <c r="E245" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>142</v>
+      </c>
+      <c r="C246" t="s">
+        <v>39</v>
+      </c>
+      <c r="D246" t="s">
+        <v>173</v>
+      </c>
+      <c r="E246" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>142</v>
+      </c>
+      <c r="C247" t="s">
+        <v>40</v>
+      </c>
+      <c r="D247" t="s">
+        <v>173</v>
+      </c>
+      <c r="E247" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>142</v>
+      </c>
+      <c r="C248" t="s">
+        <v>41</v>
+      </c>
+      <c r="D248" t="s">
+        <v>173</v>
+      </c>
+      <c r="E248" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>142</v>
+      </c>
+      <c r="C249" t="s">
+        <v>42</v>
+      </c>
+      <c r="D249" t="s">
+        <v>173</v>
+      </c>
+      <c r="E249" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>142</v>
+      </c>
+      <c r="C250" t="s">
+        <v>43</v>
+      </c>
+      <c r="D250" t="s">
+        <v>173</v>
+      </c>
+      <c r="E250" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>142</v>
+      </c>
+      <c r="C251" t="s">
+        <v>44</v>
+      </c>
+      <c r="D251" t="s">
+        <v>173</v>
+      </c>
+      <c r="E251" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>142</v>
+      </c>
+      <c r="C252" t="s">
+        <v>45</v>
+      </c>
+      <c r="D252" t="s">
+        <v>173</v>
+      </c>
+      <c r="E252" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>142</v>
+      </c>
+      <c r="C253" t="s">
+        <v>46</v>
+      </c>
+      <c r="D253" t="s">
+        <v>173</v>
+      </c>
+      <c r="E253" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>142</v>
+      </c>
+      <c r="C254" t="s">
+        <v>47</v>
+      </c>
+      <c r="D254" t="s">
+        <v>173</v>
+      </c>
+      <c r="E254" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>143</v>
+      </c>
+      <c r="C255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>174</v>
+      </c>
+      <c r="E255" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>143</v>
+      </c>
+      <c r="C256" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" t="s">
+        <v>174</v>
+      </c>
+      <c r="E256" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" t="s">
+        <v>53</v>
+      </c>
+      <c r="D257" t="s">
+        <v>174</v>
+      </c>
+      <c r="E257" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>143</v>
+      </c>
+      <c r="C258" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" t="s">
+        <v>174</v>
+      </c>
+      <c r="E258" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>143</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+      <c r="D259" t="s">
+        <v>174</v>
+      </c>
+      <c r="E259" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>143</v>
+      </c>
+      <c r="C260" t="s">
+        <v>56</v>
+      </c>
+      <c r="D260" t="s">
+        <v>174</v>
+      </c>
+      <c r="E260" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>143</v>
+      </c>
+      <c r="C261" t="s">
+        <v>57</v>
+      </c>
+      <c r="D261" t="s">
+        <v>174</v>
+      </c>
+      <c r="E261" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>143</v>
+      </c>
+      <c r="C262" t="s">
+        <v>58</v>
+      </c>
+      <c r="D262" t="s">
+        <v>174</v>
+      </c>
+      <c r="E262" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>143</v>
+      </c>
+      <c r="C263" t="s">
+        <v>59</v>
+      </c>
+      <c r="D263" t="s">
+        <v>174</v>
+      </c>
+      <c r="E263" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>141</v>
+      </c>
+      <c r="C264" t="s">
+        <v>60</v>
+      </c>
+      <c r="D264" t="s">
+        <v>175</v>
+      </c>
+      <c r="E264" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>141</v>
+      </c>
+      <c r="C265" t="s">
+        <v>123</v>
+      </c>
+      <c r="D265" t="s">
+        <v>175</v>
+      </c>
+      <c r="E265" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>141</v>
+      </c>
+      <c r="C266" t="s">
+        <v>124</v>
+      </c>
+      <c r="D266" t="s">
+        <v>175</v>
+      </c>
+      <c r="E266" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>141</v>
+      </c>
+      <c r="C267" t="s">
+        <v>125</v>
+      </c>
+      <c r="D267" t="s">
+        <v>175</v>
+      </c>
+      <c r="E267" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>141</v>
+      </c>
+      <c r="C268" t="s">
+        <v>126</v>
+      </c>
+      <c r="D268" t="s">
+        <v>175</v>
+      </c>
+      <c r="E268" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>141</v>
+      </c>
+      <c r="C269" t="s">
+        <v>127</v>
+      </c>
+      <c r="D269" t="s">
+        <v>175</v>
+      </c>
+      <c r="E269" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>141</v>
+      </c>
+      <c r="C270" t="s">
+        <v>128</v>
+      </c>
+      <c r="D270" t="s">
+        <v>175</v>
+      </c>
+      <c r="E270" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>141</v>
+      </c>
+      <c r="C271" t="s">
+        <v>129</v>
+      </c>
+      <c r="D271" t="s">
+        <v>175</v>
+      </c>
+      <c r="E271" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>141</v>
+      </c>
+      <c r="C272" t="s">
+        <v>130</v>
+      </c>
+      <c r="D272" t="s">
+        <v>175</v>
+      </c>
+      <c r="E272" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>131</v>
+      </c>
+      <c r="D273" t="s">
+        <v>175</v>
+      </c>
+      <c r="E273" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="s">
+        <v>132</v>
+      </c>
+      <c r="D274" t="s">
+        <v>175</v>
+      </c>
+      <c r="E274" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="s">
+        <v>133</v>
+      </c>
+      <c r="D275" t="s">
+        <v>175</v>
+      </c>
+      <c r="E275" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="s">
+        <v>134</v>
+      </c>
+      <c r="D276" t="s">
+        <v>175</v>
+      </c>
+      <c r="E276" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="s">
+        <v>135</v>
+      </c>
+      <c r="D277" t="s">
+        <v>175</v>
+      </c>
+      <c r="E277" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>141</v>
+      </c>
+      <c r="C278" t="s">
+        <v>136</v>
+      </c>
+      <c r="D278" t="s">
+        <v>175</v>
+      </c>
+      <c r="E278" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>141</v>
+      </c>
+      <c r="C279" t="s">
+        <v>137</v>
+      </c>
+      <c r="D279" t="s">
+        <v>175</v>
+      </c>
+      <c r="E279" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>141</v>
+      </c>
+      <c r="C280" t="s">
+        <v>138</v>
+      </c>
+      <c r="D280" t="s">
+        <v>175</v>
+      </c>
+      <c r="E280" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>141</v>
+      </c>
+      <c r="C281" t="s">
+        <v>62</v>
+      </c>
+      <c r="D281" t="s">
+        <v>175</v>
+      </c>
+      <c r="E281" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>146</v>
+      </c>
+      <c r="C282" t="s">
+        <v>35</v>
+      </c>
+      <c r="D282" t="s">
+        <v>177</v>
+      </c>
+      <c r="E282" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>146</v>
+      </c>
+      <c r="C283" t="s">
+        <v>37</v>
+      </c>
+      <c r="D283" t="s">
+        <v>177</v>
+      </c>
+      <c r="E283" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>146</v>
+      </c>
+      <c r="C284" t="s">
+        <v>38</v>
+      </c>
+      <c r="D284" t="s">
+        <v>177</v>
+      </c>
+      <c r="E284" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>146</v>
+      </c>
+      <c r="C285" t="s">
+        <v>39</v>
+      </c>
+      <c r="D285" t="s">
+        <v>177</v>
+      </c>
+      <c r="E285" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>146</v>
+      </c>
+      <c r="C286" t="s">
+        <v>40</v>
+      </c>
+      <c r="D286" t="s">
+        <v>177</v>
+      </c>
+      <c r="E286" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>146</v>
+      </c>
+      <c r="C287" t="s">
+        <v>41</v>
+      </c>
+      <c r="D287" t="s">
+        <v>177</v>
+      </c>
+      <c r="E287" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>146</v>
+      </c>
+      <c r="C288" t="s">
+        <v>42</v>
+      </c>
+      <c r="D288" t="s">
+        <v>177</v>
+      </c>
+      <c r="E288" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>146</v>
+      </c>
+      <c r="C289" t="s">
+        <v>43</v>
+      </c>
+      <c r="D289" t="s">
+        <v>177</v>
+      </c>
+      <c r="E289" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>146</v>
+      </c>
+      <c r="C290" t="s">
+        <v>44</v>
+      </c>
+      <c r="D290" t="s">
+        <v>177</v>
+      </c>
+      <c r="E290" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C291" t="s">
+        <v>148</v>
+      </c>
+      <c r="D291" t="s">
+        <v>178</v>
+      </c>
+      <c r="E291" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>34</v>
+      </c>
+      <c r="C292" t="s">
+        <v>149</v>
+      </c>
+      <c r="D292" t="s">
+        <v>178</v>
+      </c>
+      <c r="E292" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>34</v>
+      </c>
+      <c r="C293" t="s">
+        <v>150</v>
+      </c>
+      <c r="D293" t="s">
+        <v>178</v>
+      </c>
+      <c r="E293" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>34</v>
+      </c>
+      <c r="C294" t="s">
+        <v>151</v>
+      </c>
+      <c r="D294" t="s">
+        <v>178</v>
+      </c>
+      <c r="E294" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>34</v>
+      </c>
+      <c r="C295" t="s">
+        <v>152</v>
+      </c>
+      <c r="D295" t="s">
+        <v>178</v>
+      </c>
+      <c r="E295" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296" t="s">
+        <v>153</v>
+      </c>
+      <c r="D296" t="s">
+        <v>178</v>
+      </c>
+      <c r="E296" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297" t="s">
+        <v>154</v>
+      </c>
+      <c r="D297" t="s">
+        <v>178</v>
+      </c>
+      <c r="E297" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>34</v>
+      </c>
+      <c r="C298" t="s">
+        <v>155</v>
+      </c>
+      <c r="D298" t="s">
+        <v>178</v>
+      </c>
+      <c r="E298" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>34</v>
+      </c>
+      <c r="C299" t="s">
+        <v>156</v>
+      </c>
+      <c r="D299" t="s">
+        <v>178</v>
+      </c>
+      <c r="E299" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D150" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
-      <sortCondition ref="A1:A150"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5434116-813D-4DE2-8AB8-C734A0F3D298}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A369D3B-379B-4624-9B9F-A13AC10ED3C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="183">
   <si>
     <t>Data Product</t>
   </si>
@@ -560,6 +560,18 @@
   </si>
   <si>
     <t>mqO4CUwDQYW8IVCJRaJJ7Q</t>
+  </si>
+  <si>
+    <t>BvD ID Changes</t>
+  </si>
+  <si>
+    <t>AchNv9QQS0qFrThlyqXhDw</t>
+  </si>
+  <si>
+    <t>d1uBZqfHSLOhAmhZWTDySw</t>
+  </si>
+  <si>
+    <t>bvd_id_changes_full</t>
   </si>
 </sst>
 </file>
@@ -940,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,16 +3517,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,7 +3537,7 @@
         <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D152" t="s">
         <v>159</v>
@@ -3539,13 +3551,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E153" t="s">
         <v>176</v>
@@ -3559,7 +3571,7 @@
         <v>111</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D154" t="s">
         <v>160</v>
@@ -3576,7 +3588,7 @@
         <v>111</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" t="s">
         <v>160</v>
@@ -3590,13 +3602,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E156" t="s">
         <v>176</v>
@@ -3610,7 +3622,7 @@
         <v>113</v>
       </c>
       <c r="C157" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D157" t="s">
         <v>161</v>
@@ -3627,7 +3639,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
@@ -3644,7 +3656,7 @@
         <v>113</v>
       </c>
       <c r="C159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D159" t="s">
         <v>161</v>
@@ -3661,7 +3673,7 @@
         <v>113</v>
       </c>
       <c r="C160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D160" t="s">
         <v>161</v>
@@ -3678,7 +3690,7 @@
         <v>113</v>
       </c>
       <c r="C161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D161" t="s">
         <v>161</v>
@@ -3692,13 +3704,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="D162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E162" t="s">
         <v>176</v>
@@ -3712,7 +3724,7 @@
         <v>68</v>
       </c>
       <c r="C163" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D163" t="s">
         <v>162</v>
@@ -3729,7 +3741,7 @@
         <v>68</v>
       </c>
       <c r="C164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D164" t="s">
         <v>162</v>
@@ -3746,7 +3758,7 @@
         <v>68</v>
       </c>
       <c r="C165" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D165" t="s">
         <v>162</v>
@@ -3763,7 +3775,7 @@
         <v>68</v>
       </c>
       <c r="C166" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D166" t="s">
         <v>162</v>
@@ -3780,7 +3792,7 @@
         <v>68</v>
       </c>
       <c r="C167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D167" t="s">
         <v>162</v>
@@ -3797,7 +3809,7 @@
         <v>68</v>
       </c>
       <c r="C168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D168" t="s">
         <v>162</v>
@@ -3814,7 +3826,7 @@
         <v>68</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D169" t="s">
         <v>162</v>
@@ -3831,7 +3843,7 @@
         <v>68</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D170" t="s">
         <v>162</v>
@@ -3848,7 +3860,7 @@
         <v>68</v>
       </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D171" t="s">
         <v>162</v>
@@ -3865,7 +3877,7 @@
         <v>68</v>
       </c>
       <c r="C172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D172" t="s">
         <v>162</v>
@@ -3882,7 +3894,7 @@
         <v>68</v>
       </c>
       <c r="C173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
         <v>162</v>
@@ -3899,7 +3911,7 @@
         <v>68</v>
       </c>
       <c r="C174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D174" t="s">
         <v>162</v>
@@ -3916,7 +3928,7 @@
         <v>68</v>
       </c>
       <c r="C175" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D175" t="s">
         <v>162</v>
@@ -3933,7 +3945,7 @@
         <v>68</v>
       </c>
       <c r="C176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D176" t="s">
         <v>162</v>
@@ -3950,7 +3962,7 @@
         <v>68</v>
       </c>
       <c r="C177" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D177" t="s">
         <v>162</v>
@@ -3967,7 +3979,7 @@
         <v>68</v>
       </c>
       <c r="C178" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D178" t="s">
         <v>162</v>
@@ -3984,7 +3996,7 @@
         <v>68</v>
       </c>
       <c r="C179" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D179" t="s">
         <v>162</v>
@@ -3998,13 +4010,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E180" t="s">
         <v>176</v>
@@ -4015,13 +4027,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E181" t="s">
         <v>176</v>
@@ -4035,7 +4047,7 @@
         <v>99</v>
       </c>
       <c r="C182" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D182" t="s">
         <v>164</v>
@@ -4052,7 +4064,7 @@
         <v>99</v>
       </c>
       <c r="C183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D183" t="s">
         <v>164</v>
@@ -4069,7 +4081,7 @@
         <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D184" t="s">
         <v>164</v>
@@ -4083,13 +4095,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E185" t="s">
         <v>176</v>
@@ -4103,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
         <v>165</v>
@@ -4120,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187" t="s">
         <v>165</v>
@@ -4137,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
         <v>165</v>
@@ -4154,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D189" t="s">
         <v>165</v>
@@ -4171,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
         <v>165</v>
@@ -4188,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
         <v>165</v>
@@ -4205,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192" t="s">
         <v>165</v>
@@ -4222,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D193" t="s">
         <v>165</v>
@@ -4239,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
         <v>165</v>
@@ -4253,13 +4265,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E195" t="s">
         <v>176</v>
@@ -4273,7 +4285,7 @@
         <v>91</v>
       </c>
       <c r="C196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D196" t="s">
         <v>166</v>
@@ -4290,7 +4302,7 @@
         <v>91</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D197" t="s">
         <v>166</v>
@@ -4307,7 +4319,7 @@
         <v>91</v>
       </c>
       <c r="C198" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D198" t="s">
         <v>166</v>
@@ -4324,7 +4336,7 @@
         <v>91</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
         <v>166</v>
@@ -4341,7 +4353,7 @@
         <v>91</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D200" t="s">
         <v>166</v>
@@ -4355,13 +4367,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E201" t="s">
         <v>176</v>
@@ -4375,7 +4387,7 @@
         <v>49</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D202" t="s">
         <v>167</v>
@@ -4392,7 +4404,7 @@
         <v>49</v>
       </c>
       <c r="C203" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D203" t="s">
         <v>167</v>
@@ -4409,7 +4421,7 @@
         <v>49</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D204" t="s">
         <v>167</v>
@@ -4426,7 +4438,7 @@
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D205" t="s">
         <v>167</v>
@@ -4443,7 +4455,7 @@
         <v>49</v>
       </c>
       <c r="C206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D206" t="s">
         <v>167</v>
@@ -4460,7 +4472,7 @@
         <v>49</v>
       </c>
       <c r="C207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D207" t="s">
         <v>167</v>
@@ -4477,7 +4489,7 @@
         <v>49</v>
       </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D208" t="s">
         <v>167</v>
@@ -4494,7 +4506,7 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D209" t="s">
         <v>167</v>
@@ -4508,13 +4520,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="D210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E210" t="s">
         <v>176</v>
@@ -4528,7 +4540,7 @@
         <v>140</v>
       </c>
       <c r="C211" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D211" t="s">
         <v>168</v>
@@ -4545,7 +4557,7 @@
         <v>140</v>
       </c>
       <c r="C212" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D212" t="s">
         <v>168</v>
@@ -4562,7 +4574,7 @@
         <v>140</v>
       </c>
       <c r="C213" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D213" t="s">
         <v>168</v>
@@ -4579,7 +4591,7 @@
         <v>140</v>
       </c>
       <c r="C214" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D214" t="s">
         <v>168</v>
@@ -4593,13 +4605,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C215" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D215" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E215" t="s">
         <v>176</v>
@@ -4610,13 +4622,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C216" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E216" t="s">
         <v>176</v>
@@ -4630,7 +4642,7 @@
         <v>144</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D217" t="s">
         <v>170</v>
@@ -4647,7 +4659,7 @@
         <v>144</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
         <v>170</v>
@@ -4664,7 +4676,7 @@
         <v>144</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
         <v>170</v>
@@ -4681,7 +4693,7 @@
         <v>144</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D220" t="s">
         <v>170</v>
@@ -4698,7 +4710,7 @@
         <v>144</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
         <v>170</v>
@@ -4715,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
         <v>170</v>
@@ -4732,7 +4744,7 @@
         <v>144</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D223" t="s">
         <v>170</v>
@@ -4749,7 +4761,7 @@
         <v>144</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
         <v>170</v>
@@ -4766,7 +4778,7 @@
         <v>144</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" t="s">
         <v>170</v>
@@ -4780,13 +4792,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E226" t="s">
         <v>176</v>
@@ -4800,7 +4812,7 @@
         <v>64</v>
       </c>
       <c r="C227" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D227" t="s">
         <v>171</v>
@@ -4814,13 +4826,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D228" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E228" t="s">
         <v>176</v>
@@ -4834,7 +4846,7 @@
         <v>139</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
         <v>172</v>
@@ -4851,7 +4863,7 @@
         <v>139</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
         <v>172</v>
@@ -4868,7 +4880,7 @@
         <v>139</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
         <v>172</v>
@@ -4885,7 +4897,7 @@
         <v>139</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
         <v>172</v>
@@ -4902,7 +4914,7 @@
         <v>139</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
         <v>172</v>
@@ -4919,7 +4931,7 @@
         <v>139</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
         <v>172</v>
@@ -4936,7 +4948,7 @@
         <v>139</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
         <v>172</v>
@@ -4953,7 +4965,7 @@
         <v>139</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
         <v>172</v>
@@ -4970,7 +4982,7 @@
         <v>139</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
         <v>172</v>
@@ -4987,7 +4999,7 @@
         <v>139</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
         <v>172</v>
@@ -5004,7 +5016,7 @@
         <v>139</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D239" t="s">
         <v>172</v>
@@ -5021,7 +5033,7 @@
         <v>139</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
         <v>172</v>
@@ -5038,7 +5050,7 @@
         <v>139</v>
       </c>
       <c r="C241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D241" t="s">
         <v>172</v>
@@ -5055,7 +5067,7 @@
         <v>139</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D242" t="s">
         <v>172</v>
@@ -5069,13 +5081,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D243" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E243" t="s">
         <v>176</v>
@@ -5089,7 +5101,7 @@
         <v>142</v>
       </c>
       <c r="C244" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D244" t="s">
         <v>173</v>
@@ -5106,7 +5118,7 @@
         <v>142</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
         <v>173</v>
@@ -5123,7 +5135,7 @@
         <v>142</v>
       </c>
       <c r="C246" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D246" t="s">
         <v>173</v>
@@ -5140,7 +5152,7 @@
         <v>142</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
         <v>173</v>
@@ -5157,7 +5169,7 @@
         <v>142</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D248" t="s">
         <v>173</v>
@@ -5174,7 +5186,7 @@
         <v>142</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D249" t="s">
         <v>173</v>
@@ -5191,7 +5203,7 @@
         <v>142</v>
       </c>
       <c r="C250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D250" t="s">
         <v>173</v>
@@ -5208,7 +5220,7 @@
         <v>142</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D251" t="s">
         <v>173</v>
@@ -5225,7 +5237,7 @@
         <v>142</v>
       </c>
       <c r="C252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D252" t="s">
         <v>173</v>
@@ -5242,7 +5254,7 @@
         <v>142</v>
       </c>
       <c r="C253" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D253" t="s">
         <v>173</v>
@@ -5259,7 +5271,7 @@
         <v>142</v>
       </c>
       <c r="C254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D254" t="s">
         <v>173</v>
@@ -5273,13 +5285,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C255" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D255" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E255" t="s">
         <v>176</v>
@@ -5293,7 +5305,7 @@
         <v>143</v>
       </c>
       <c r="C256" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D256" t="s">
         <v>174</v>
@@ -5310,7 +5322,7 @@
         <v>143</v>
       </c>
       <c r="C257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D257" t="s">
         <v>174</v>
@@ -5327,7 +5339,7 @@
         <v>143</v>
       </c>
       <c r="C258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D258" t="s">
         <v>174</v>
@@ -5344,7 +5356,7 @@
         <v>143</v>
       </c>
       <c r="C259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D259" t="s">
         <v>174</v>
@@ -5361,7 +5373,7 @@
         <v>143</v>
       </c>
       <c r="C260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D260" t="s">
         <v>174</v>
@@ -5378,7 +5390,7 @@
         <v>143</v>
       </c>
       <c r="C261" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D261" t="s">
         <v>174</v>
@@ -5395,7 +5407,7 @@
         <v>143</v>
       </c>
       <c r="C262" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D262" t="s">
         <v>174</v>
@@ -5412,7 +5424,7 @@
         <v>143</v>
       </c>
       <c r="C263" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D263" t="s">
         <v>174</v>
@@ -5426,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C264" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E264" t="s">
         <v>176</v>
@@ -5446,7 +5458,7 @@
         <v>141</v>
       </c>
       <c r="C265" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="D265" t="s">
         <v>175</v>
@@ -5463,7 +5475,7 @@
         <v>141</v>
       </c>
       <c r="C266" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D266" t="s">
         <v>175</v>
@@ -5480,7 +5492,7 @@
         <v>141</v>
       </c>
       <c r="C267" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D267" t="s">
         <v>175</v>
@@ -5497,7 +5509,7 @@
         <v>141</v>
       </c>
       <c r="C268" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D268" t="s">
         <v>175</v>
@@ -5514,7 +5526,7 @@
         <v>141</v>
       </c>
       <c r="C269" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D269" t="s">
         <v>175</v>
@@ -5531,7 +5543,7 @@
         <v>141</v>
       </c>
       <c r="C270" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D270" t="s">
         <v>175</v>
@@ -5548,7 +5560,7 @@
         <v>141</v>
       </c>
       <c r="C271" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D271" t="s">
         <v>175</v>
@@ -5565,7 +5577,7 @@
         <v>141</v>
       </c>
       <c r="C272" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D272" t="s">
         <v>175</v>
@@ -5582,7 +5594,7 @@
         <v>141</v>
       </c>
       <c r="C273" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D273" t="s">
         <v>175</v>
@@ -5599,7 +5611,7 @@
         <v>141</v>
       </c>
       <c r="C274" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D274" t="s">
         <v>175</v>
@@ -5616,7 +5628,7 @@
         <v>141</v>
       </c>
       <c r="C275" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D275" t="s">
         <v>175</v>
@@ -5633,7 +5645,7 @@
         <v>141</v>
       </c>
       <c r="C276" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D276" t="s">
         <v>175</v>
@@ -5650,7 +5662,7 @@
         <v>141</v>
       </c>
       <c r="C277" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D277" t="s">
         <v>175</v>
@@ -5667,7 +5679,7 @@
         <v>141</v>
       </c>
       <c r="C278" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D278" t="s">
         <v>175</v>
@@ -5684,7 +5696,7 @@
         <v>141</v>
       </c>
       <c r="C279" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D279" t="s">
         <v>175</v>
@@ -5701,7 +5713,7 @@
         <v>141</v>
       </c>
       <c r="C280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D280" t="s">
         <v>175</v>
@@ -5718,7 +5730,7 @@
         <v>141</v>
       </c>
       <c r="C281" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D281" t="s">
         <v>175</v>
@@ -5732,13 +5744,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D282" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E282" t="s">
         <v>176</v>
@@ -5752,7 +5764,7 @@
         <v>146</v>
       </c>
       <c r="C283" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D283" t="s">
         <v>177</v>
@@ -5769,7 +5781,7 @@
         <v>146</v>
       </c>
       <c r="C284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D284" t="s">
         <v>177</v>
@@ -5786,7 +5798,7 @@
         <v>146</v>
       </c>
       <c r="C285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D285" t="s">
         <v>177</v>
@@ -5803,7 +5815,7 @@
         <v>146</v>
       </c>
       <c r="C286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D286" t="s">
         <v>177</v>
@@ -5820,7 +5832,7 @@
         <v>146</v>
       </c>
       <c r="C287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D287" t="s">
         <v>177</v>
@@ -5837,7 +5849,7 @@
         <v>146</v>
       </c>
       <c r="C288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D288" t="s">
         <v>177</v>
@@ -5854,7 +5866,7 @@
         <v>146</v>
       </c>
       <c r="C289" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D289" t="s">
         <v>177</v>
@@ -5871,7 +5883,7 @@
         <v>146</v>
       </c>
       <c r="C290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D290" t="s">
         <v>177</v>
@@ -5885,13 +5897,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C291" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="D291" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E291" t="s">
         <v>176</v>
@@ -5905,7 +5917,7 @@
         <v>34</v>
       </c>
       <c r="C292" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D292" t="s">
         <v>178</v>
@@ -5922,7 +5934,7 @@
         <v>34</v>
       </c>
       <c r="C293" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D293" t="s">
         <v>178</v>
@@ -5939,7 +5951,7 @@
         <v>34</v>
       </c>
       <c r="C294" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D294" t="s">
         <v>178</v>
@@ -5956,7 +5968,7 @@
         <v>34</v>
       </c>
       <c r="C295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D295" t="s">
         <v>178</v>
@@ -5973,7 +5985,7 @@
         <v>34</v>
       </c>
       <c r="C296" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D296" t="s">
         <v>178</v>
@@ -5990,7 +6002,7 @@
         <v>34</v>
       </c>
       <c r="C297" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D297" t="s">
         <v>178</v>
@@ -6007,7 +6019,7 @@
         <v>34</v>
       </c>
       <c r="C298" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D298" t="s">
         <v>178</v>
@@ -6024,7 +6036,7 @@
         <v>34</v>
       </c>
       <c r="C299" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D299" t="s">
         <v>178</v>
@@ -6033,8 +6045,46 @@
         <v>176</v>
       </c>
     </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>34</v>
+      </c>
+      <c r="C300" t="s">
+        <v>156</v>
+      </c>
+      <c r="D300" t="s">
+        <v>178</v>
+      </c>
+      <c r="E300" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>179</v>
+      </c>
+      <c r="C301" t="s">
+        <v>182</v>
+      </c>
+      <c r="D301" t="s">
+        <v>180</v>
+      </c>
+      <c r="E301" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A369D3B-379B-4624-9B9F-A13AC10ED3C9}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0144A03-4BA8-440D-B760-FCDDE276BEE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$301</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -178,9 +178,6 @@
     <t>additional_company_info</t>
   </si>
   <si>
-    <t>LsrJCdMIQY2hg0Yuxqvzzw</t>
-  </si>
-  <si>
     <t>all_addresses</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>bvd_id_changes_full</t>
+  </si>
+  <si>
+    <t>k2uOkSvCQ1m6buKB6Z3geA</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,16 +1001,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,13 +1072,13 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,13 +1089,13 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,13 +1106,13 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1140,13 +1140,13 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,13 +1157,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,16 +1171,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,16 +1188,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,16 +1205,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,16 +1222,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,16 +1239,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,16 +1256,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,16 +1273,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,16 +1290,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,16 +1307,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,16 +1324,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,16 +1341,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,16 +1358,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,16 +1375,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -1401,7 +1401,7 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1418,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1452,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -1469,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1486,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -1503,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
@@ -1520,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -1537,7 +1537,7 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -1554,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -1571,7 +1571,7 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,16 +1596,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,16 +1613,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,16 +1630,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,16 +1664,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,16 +1681,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,16 +1698,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,16 +1715,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,16 +1732,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,10 +1755,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,13 +1769,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1786,13 +1786,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,13 +1803,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,13 +1820,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,13 +1837,13 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,13 +1854,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1871,13 +1871,13 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,13 +1888,13 @@
         <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,16 +1902,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
         <v>99</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>100</v>
       </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,16 +1919,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,16 +1936,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,16 +1953,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -2013,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
@@ -2030,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +2038,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -2047,7 +2047,7 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -2081,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -2098,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -2132,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -2166,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -2183,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -2200,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,16 +2225,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,16 +2242,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,16 +2259,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,16 +2276,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>92</v>
       </c>
-      <c r="D78" t="s">
-        <v>93</v>
-      </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,16 +2293,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,16 +2310,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,16 +2327,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,16 +2344,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,16 +2361,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2557,7 +2557,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2574,7 +2574,7 @@
         <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -2591,7 +2591,7 @@
         <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -2608,7 +2608,7 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -2625,7 +2625,7 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -2642,7 +2642,7 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -2659,7 +2659,7 @@
         <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2676,7 +2676,7 @@
         <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -2693,7 +2693,7 @@
         <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -2710,7 +2710,7 @@
         <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,16 +2718,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,16 +2735,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,16 +2752,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,16 +2769,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,16 +2786,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,16 +2803,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,16 +2820,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,16 +2837,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,16 +2854,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,16 +2871,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,16 +2888,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,16 +2905,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,16 +2922,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,16 +2939,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,16 +2956,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,16 +2973,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,16 +2990,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,16 +3007,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,16 +3024,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" t="s">
         <v>113</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>114</v>
       </c>
-      <c r="D122" t="s">
-        <v>115</v>
-      </c>
       <c r="E122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,16 +3041,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,16 +3058,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,16 +3075,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,16 +3092,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,16 +3109,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,16 +3126,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" t="s">
         <v>105</v>
       </c>
-      <c r="D128" t="s">
-        <v>106</v>
-      </c>
       <c r="E128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,16 +3143,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,16 +3160,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,16 +3177,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,16 +3194,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,16 +3211,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
         <v>68</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>69</v>
       </c>
-      <c r="D133" t="s">
-        <v>70</v>
-      </c>
       <c r="E133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,16 +3228,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,16 +3245,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,16 +3262,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3279,16 +3279,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,16 +3296,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,16 +3313,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,16 +3330,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,16 +3347,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,16 +3364,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,16 +3381,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,16 +3398,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,16 +3415,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,16 +3432,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,16 +3449,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,16 +3466,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,16 +3483,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3500,16 +3500,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,16 +3517,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,16 +3534,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,16 +3551,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,16 +3568,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C154" t="s">
         <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,16 +3585,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C155" t="s">
         <v>46</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,16 +3602,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C156" t="s">
         <v>47</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" t="s">
         <v>113</v>
       </c>
-      <c r="C157" t="s">
-        <v>114</v>
-      </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,16 +3636,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,16 +3653,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,16 +3670,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,16 +3687,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,16 +3704,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,16 +3721,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" t="s">
         <v>68</v>
       </c>
-      <c r="C163" t="s">
-        <v>69</v>
-      </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,16 +3738,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C164" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,16 +3755,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C165" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,16 +3772,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C166" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,16 +3789,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3806,16 +3806,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,16 +3823,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,16 +3840,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,16 +3857,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,16 +3874,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,16 +3891,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,16 +3908,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,16 +3925,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3942,16 +3942,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C176" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,16 +3959,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,16 +3976,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3993,16 +3993,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,16 +4010,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C180" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4033,10 +4033,10 @@
         <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E181" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,16 +4044,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" t="s">
         <v>99</v>
       </c>
-      <c r="C182" t="s">
-        <v>100</v>
-      </c>
       <c r="D182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4061,16 +4061,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C183" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,16 +4078,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C184" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,16 +4095,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C185" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,10 +4118,10 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4135,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,10 +4152,10 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E188" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,10 +4169,10 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E189" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E190" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,10 +4203,10 @@
         <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4220,10 +4220,10 @@
         <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E192" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E193" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E194" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,16 +4282,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>90</v>
+      </c>
+      <c r="C196" t="s">
         <v>91</v>
       </c>
-      <c r="C196" t="s">
-        <v>92</v>
-      </c>
       <c r="D196" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E196" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4299,16 +4299,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D197" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E197" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,16 +4316,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C198" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E198" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,16 +4333,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C199" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,16 +4350,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E200" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,16 +4367,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4390,10 +4390,10 @@
         <v>50</v>
       </c>
       <c r="D202" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,13 +4404,13 @@
         <v>49</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D203" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E203" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,13 +4421,13 @@
         <v>49</v>
       </c>
       <c r="C204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4438,13 +4438,13 @@
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D205" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E205" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,13 +4455,13 @@
         <v>49</v>
       </c>
       <c r="C206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E206" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4472,13 +4472,13 @@
         <v>49</v>
       </c>
       <c r="C207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D207" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E207" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,13 +4489,13 @@
         <v>49</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D208" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E208" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,13 +4506,13 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D209" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,13 +4523,13 @@
         <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,16 +4537,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C211" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D211" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,16 +4554,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,16 +4571,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D213" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E213" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,16 +4588,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C214" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D214" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E214" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,16 +4605,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C215" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D215" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,16 +4622,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>87</v>
+      </c>
+      <c r="C216" t="s">
         <v>88</v>
       </c>
-      <c r="C216" t="s">
-        <v>89</v>
-      </c>
       <c r="D216" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,16 +4639,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E217" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,16 +4656,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E218" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,16 +4673,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E219" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,16 +4690,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C220" t="s">
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E220" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,16 +4707,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E221" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,16 +4724,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C222" t="s">
         <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E222" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,16 +4741,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C223" t="s">
         <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,16 +4758,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E224" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,16 +4775,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E225" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4792,16 +4792,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E226" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4809,16 +4809,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" t="s">
         <v>64</v>
       </c>
-      <c r="C227" t="s">
-        <v>65</v>
-      </c>
       <c r="D227" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E227" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4826,16 +4826,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C228" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D228" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E228" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4843,16 +4843,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C229" t="s">
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E229" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,16 +4860,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4877,16 +4877,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E231" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4894,16 +4894,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C232" t="s">
         <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E232" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,16 +4911,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C233" t="s">
         <v>20</v>
       </c>
       <c r="D233" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E233" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4928,16 +4928,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C234" t="s">
         <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E234" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,16 +4945,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C235" t="s">
         <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E235" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,16 +4962,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C236" t="s">
         <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E236" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,16 +4979,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C237" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E237" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4996,16 +4996,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C238" t="s">
         <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E238" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,16 +5013,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C239" t="s">
         <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E239" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5030,16 +5030,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E240" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5047,16 +5047,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
       </c>
       <c r="D241" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E241" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5064,16 +5064,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
       </c>
       <c r="D242" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E242" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,16 +5081,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C243" t="s">
         <v>30</v>
       </c>
       <c r="D243" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E243" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,16 +5098,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
       </c>
       <c r="D244" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E244" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,16 +5115,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C245" t="s">
         <v>37</v>
       </c>
       <c r="D245" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E245" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,16 +5132,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C246" t="s">
         <v>38</v>
       </c>
       <c r="D246" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E246" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,16 +5149,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C247" t="s">
         <v>39</v>
       </c>
       <c r="D247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E247" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,16 +5166,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
       </c>
       <c r="D248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E248" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,16 +5183,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C249" t="s">
         <v>41</v>
       </c>
       <c r="D249" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E249" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5200,16 +5200,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C250" t="s">
         <v>42</v>
       </c>
       <c r="D250" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E250" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,16 +5217,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C251" t="s">
         <v>43</v>
       </c>
       <c r="D251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E251" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5234,16 +5234,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C252" t="s">
         <v>44</v>
       </c>
       <c r="D252" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E252" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,16 +5251,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C253" t="s">
         <v>45</v>
       </c>
       <c r="D253" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E253" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5268,16 +5268,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C254" t="s">
         <v>46</v>
       </c>
       <c r="D254" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E254" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,16 +5285,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C255" t="s">
         <v>47</v>
       </c>
       <c r="D255" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E255" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5302,16 +5302,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C256" t="s">
         <v>50</v>
       </c>
       <c r="D256" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E256" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,16 +5319,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D257" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E257" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5336,16 +5336,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E258" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,16 +5353,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D259" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5370,16 +5370,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E260" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,16 +5387,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D261" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E261" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,16 +5404,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C262" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D262" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E262" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,16 +5421,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D263" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E263" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,16 +5438,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C264" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D264" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E264" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5455,16 +5455,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C265" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E265" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5472,16 +5472,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C266" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,16 +5489,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C267" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5506,16 +5506,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C268" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D268" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E268" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5523,16 +5523,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C269" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E269" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5540,16 +5540,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C270" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E270" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -5557,16 +5557,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C271" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E271" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,16 +5574,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C272" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D272" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E272" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5591,16 +5591,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C273" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D273" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E273" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5608,16 +5608,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C274" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E274" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,16 +5625,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C275" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D275" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E275" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5642,16 +5642,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C276" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D276" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,16 +5659,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C277" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D277" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5676,16 +5676,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C278" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D278" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E278" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5693,16 +5693,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C279" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D279" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E279" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,16 +5710,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C280" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D280" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E280" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,16 +5727,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C281" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D281" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E281" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5744,16 +5744,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C282" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D282" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E282" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,16 +5761,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C283" t="s">
         <v>35</v>
       </c>
       <c r="D283" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E283" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5778,16 +5778,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C284" t="s">
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E284" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5795,16 +5795,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C285" t="s">
         <v>38</v>
       </c>
       <c r="D285" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E285" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5812,16 +5812,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C286" t="s">
         <v>39</v>
       </c>
       <c r="D286" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E286" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5829,16 +5829,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C287" t="s">
         <v>40</v>
       </c>
       <c r="D287" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E287" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5846,16 +5846,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C288" t="s">
         <v>41</v>
       </c>
       <c r="D288" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E288" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5863,16 +5863,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C289" t="s">
         <v>42</v>
       </c>
       <c r="D289" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E289" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,16 +5880,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C290" t="s">
         <v>43</v>
       </c>
       <c r="D290" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E290" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,16 +5897,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C291" t="s">
         <v>44</v>
       </c>
       <c r="D291" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E291" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5917,13 +5917,13 @@
         <v>34</v>
       </c>
       <c r="C292" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D292" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E292" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5934,13 +5934,13 @@
         <v>34</v>
       </c>
       <c r="C293" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D293" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E293" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5951,13 +5951,13 @@
         <v>34</v>
       </c>
       <c r="C294" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D294" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E294" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5968,13 +5968,13 @@
         <v>34</v>
       </c>
       <c r="C295" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D295" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E295" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5985,13 +5985,13 @@
         <v>34</v>
       </c>
       <c r="C296" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D296" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6002,13 +6002,13 @@
         <v>34</v>
       </c>
       <c r="C297" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D297" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E297" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6019,13 +6019,13 @@
         <v>34</v>
       </c>
       <c r="C298" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D298" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E298" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6036,13 +6036,13 @@
         <v>34</v>
       </c>
       <c r="C299" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D299" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6053,13 +6053,13 @@
         <v>34</v>
       </c>
       <c r="C300" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D300" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E300" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,22 +6067,22 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>178</v>
+      </c>
+      <c r="C301" t="s">
+        <v>181</v>
+      </c>
+      <c r="D301" t="s">
         <v>179</v>
       </c>
-      <c r="C301" t="s">
-        <v>182</v>
-      </c>
-      <c r="D301" t="s">
-        <v>180</v>
-      </c>
       <c r="E301" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:E301" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="A1:A301"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0144A03-4BA8-440D-B760-FCDDE276BEE9}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5041B96-080F-4629-A9A6-2EEFF177098D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -665,6 +665,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,7 +959,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5041B96-080F-4629-A9A6-2EEFF177098D}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81CF769-7A8D-4472-BC6A-762F13207DB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="4530" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,9 +463,6 @@
     <t>Detailed Financials (Monthly) [decommissioned 2024]</t>
   </si>
   <si>
-    <t>LLbC2hqsSWClASs27uKUvg</t>
-  </si>
-  <si>
     <t>orbis_monthly_banks_global_financials_and_ratios</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>k2uOkSvCQ1m6buKB6Z3geA</t>
+  </si>
+  <si>
+    <t>6BNu42CgRuSBOqFmMmUAdw</t>
   </si>
 </sst>
 </file>
@@ -590,6 +590,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -665,10 +666,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,7 +956,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,7 +994,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1011,7 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1022,13 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,13 +1039,13 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,13 +1056,13 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1073,13 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,13 +1090,13 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1107,13 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,13 +1124,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,13 +1141,13 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,13 +1158,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,7 +1181,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,7 +1198,7 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1215,7 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,7 +1232,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +1249,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,7 +1283,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,7 +1300,7 @@
         <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1317,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,7 +1351,7 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,7 +1368,7 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1385,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1402,7 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,7 +1436,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,7 +1470,7 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,7 +1538,7 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,7 +1555,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,10 +1603,10 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,10 +1620,10 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,10 +1637,10 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,10 +1654,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,10 +1671,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,10 +1688,10 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,10 +1705,10 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,10 +1722,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,10 +1739,10 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1759,7 @@
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,7 +1776,7 @@
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,7 +1793,7 @@
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1844,7 @@
         <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1861,7 @@
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
         <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1895,7 @@
         <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1929,7 @@
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,7 +1946,7 @@
         <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1963,7 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,7 +2048,7 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,7 +2184,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,7 +2235,7 @@
         <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2255,7 +2252,7 @@
         <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,7 +2269,7 @@
         <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,7 +2286,7 @@
         <v>92</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,7 +2303,7 @@
         <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,7 +2320,7 @@
         <v>92</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2337,7 @@
         <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,7 +2354,7 @@
         <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,7 +2371,7 @@
         <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,7 +2558,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,7 +2592,7 @@
         <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,7 +2609,7 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,7 +2626,7 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,7 +2643,7 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,7 +2660,7 @@
         <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,7 +2677,7 @@
         <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,7 +2694,7 @@
         <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,7 +2711,7 @@
         <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,7 +2728,7 @@
         <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,7 +2745,7 @@
         <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,7 +2762,7 @@
         <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,7 +2779,7 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2796,7 @@
         <v>121</v>
       </c>
       <c r="E108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,7 +2813,7 @@
         <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,7 +2830,7 @@
         <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,7 +2847,7 @@
         <v>121</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,7 +2864,7 @@
         <v>121</v>
       </c>
       <c r="E112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,7 +2881,7 @@
         <v>121</v>
       </c>
       <c r="E113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,7 +2898,7 @@
         <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +2915,7 @@
         <v>121</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,7 +2932,7 @@
         <v>121</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,7 +2949,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,7 +2966,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
         <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,7 +3000,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,7 +3017,7 @@
         <v>121</v>
       </c>
       <c r="E121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3037,7 +3034,7 @@
         <v>114</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3054,7 +3051,7 @@
         <v>114</v>
       </c>
       <c r="E123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3071,7 +3068,7 @@
         <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3088,7 +3085,7 @@
         <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3105,7 +3102,7 @@
         <v>114</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,7 +3119,7 @@
         <v>114</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,7 +3136,7 @@
         <v>105</v>
       </c>
       <c r="E128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,7 +3153,7 @@
         <v>105</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,7 +3170,7 @@
         <v>105</v>
       </c>
       <c r="E130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,7 +3187,7 @@
         <v>105</v>
       </c>
       <c r="E131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3207,7 +3204,7 @@
         <v>105</v>
       </c>
       <c r="E132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>69</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,7 +3238,7 @@
         <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>69</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3275,7 +3272,7 @@
         <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3292,7 +3289,7 @@
         <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,7 +3306,7 @@
         <v>69</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3326,7 +3323,7 @@
         <v>69</v>
       </c>
       <c r="E139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3343,7 +3340,7 @@
         <v>69</v>
       </c>
       <c r="E140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3360,7 +3357,7 @@
         <v>69</v>
       </c>
       <c r="E141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
         <v>69</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3391,7 @@
         <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,7 +3408,7 @@
         <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>69</v>
       </c>
       <c r="E145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,7 +3442,7 @@
         <v>69</v>
       </c>
       <c r="E146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>69</v>
       </c>
       <c r="E147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
         <v>69</v>
       </c>
       <c r="E148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,7 +3493,7 @@
         <v>69</v>
       </c>
       <c r="E149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,7 +3510,7 @@
         <v>69</v>
       </c>
       <c r="E150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,16 +3518,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,10 +3541,10 @@
         <v>59</v>
       </c>
       <c r="D152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3561,10 +3558,10 @@
         <v>61</v>
       </c>
       <c r="D153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,10 +3575,10 @@
         <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,10 +3592,10 @@
         <v>46</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,10 +3609,10 @@
         <v>47</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3629,10 +3626,10 @@
         <v>113</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,10 +3643,10 @@
         <v>115</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,10 +3660,10 @@
         <v>116</v>
       </c>
       <c r="D159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,10 +3677,10 @@
         <v>117</v>
       </c>
       <c r="D160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,10 +3694,10 @@
         <v>118</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,10 +3711,10 @@
         <v>119</v>
       </c>
       <c r="D162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,10 +3728,10 @@
         <v>68</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,10 +3745,10 @@
         <v>70</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,10 +3762,10 @@
         <v>71</v>
       </c>
       <c r="D165" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3782,10 +3779,10 @@
         <v>72</v>
       </c>
       <c r="D166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3799,10 +3796,10 @@
         <v>73</v>
       </c>
       <c r="D167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3816,10 +3813,10 @@
         <v>74</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3833,10 +3830,10 @@
         <v>75</v>
       </c>
       <c r="D169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,10 +3847,10 @@
         <v>76</v>
       </c>
       <c r="D170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,10 +3864,10 @@
         <v>77</v>
       </c>
       <c r="D171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3884,10 +3881,10 @@
         <v>78</v>
       </c>
       <c r="D172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,10 +3898,10 @@
         <v>79</v>
       </c>
       <c r="D173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3918,10 +3915,10 @@
         <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,10 +3932,10 @@
         <v>81</v>
       </c>
       <c r="D175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3952,10 +3949,10 @@
         <v>82</v>
       </c>
       <c r="D176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3969,10 +3966,10 @@
         <v>83</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3986,10 +3983,10 @@
         <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4003,10 +4000,10 @@
         <v>85</v>
       </c>
       <c r="D179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4020,10 +4017,10 @@
         <v>86</v>
       </c>
       <c r="D180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,10 +4034,10 @@
         <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,10 +4051,10 @@
         <v>99</v>
       </c>
       <c r="D182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4071,10 +4068,10 @@
         <v>101</v>
       </c>
       <c r="D183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E183" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4088,10 +4085,10 @@
         <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,10 +4102,10 @@
         <v>103</v>
       </c>
       <c r="D185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4122,10 +4119,10 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E187" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4156,10 +4153,10 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E188" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4173,10 +4170,10 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E189" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,10 +4187,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,10 +4204,10 @@
         <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E191" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4224,10 +4221,10 @@
         <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E192" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4241,10 +4238,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4258,10 +4255,10 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4275,10 +4272,10 @@
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E195" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4292,10 +4289,10 @@
         <v>91</v>
       </c>
       <c r="D196" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E196" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,10 +4306,10 @@
         <v>93</v>
       </c>
       <c r="D197" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E197" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4326,10 +4323,10 @@
         <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E198" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4343,10 +4340,10 @@
         <v>95</v>
       </c>
       <c r="D199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E199" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4360,10 +4357,10 @@
         <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,10 +4374,10 @@
         <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4394,10 +4391,10 @@
         <v>50</v>
       </c>
       <c r="D202" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,10 +4408,10 @@
         <v>51</v>
       </c>
       <c r="D203" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4428,10 +4425,10 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4445,10 +4442,10 @@
         <v>53</v>
       </c>
       <c r="D205" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4462,10 +4459,10 @@
         <v>54</v>
       </c>
       <c r="D206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4479,10 +4476,10 @@
         <v>55</v>
       </c>
       <c r="D207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4496,10 +4493,10 @@
         <v>56</v>
       </c>
       <c r="D208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,10 +4510,10 @@
         <v>57</v>
       </c>
       <c r="D209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4530,10 +4527,10 @@
         <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4547,10 +4544,10 @@
         <v>104</v>
       </c>
       <c r="D211" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4564,10 +4561,10 @@
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E212" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4581,10 +4578,10 @@
         <v>107</v>
       </c>
       <c r="D213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,10 +4595,10 @@
         <v>108</v>
       </c>
       <c r="D214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,10 +4612,10 @@
         <v>109</v>
       </c>
       <c r="D215" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E215" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,10 +4629,10 @@
         <v>88</v>
       </c>
       <c r="D216" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E216" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4649,10 +4646,10 @@
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E217" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4666,10 +4663,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E218" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4683,10 +4680,10 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E219" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4700,10 +4697,10 @@
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E220" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E221" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4734,10 +4731,10 @@
         <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E222" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,10 +4748,10 @@
         <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E223" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4768,10 +4765,10 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E224" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,10 +4782,10 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E225" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,10 +4799,10 @@
         <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E226" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,10 +4816,10 @@
         <v>64</v>
       </c>
       <c r="D227" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E227" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4836,10 +4833,10 @@
         <v>66</v>
       </c>
       <c r="D228" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E228" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,10 +4850,10 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E229" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4870,10 +4867,10 @@
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4887,10 +4884,10 @@
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4904,10 +4901,10 @@
         <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4921,10 +4918,10 @@
         <v>20</v>
       </c>
       <c r="D233" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E233" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4938,10 +4935,10 @@
         <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E234" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4955,10 +4952,10 @@
         <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E235" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4972,10 +4969,10 @@
         <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E236" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,10 +4986,10 @@
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E237" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5006,10 +5003,10 @@
         <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E238" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,10 +5020,10 @@
         <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E239" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,10 +5037,10 @@
         <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E240" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,10 +5054,10 @@
         <v>28</v>
       </c>
       <c r="D241" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E241" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,10 +5071,10 @@
         <v>29</v>
       </c>
       <c r="D242" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E242" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="D243" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E243" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,10 +5105,10 @@
         <v>35</v>
       </c>
       <c r="D244" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E244" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5125,10 +5122,10 @@
         <v>37</v>
       </c>
       <c r="D245" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E245" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,10 +5139,10 @@
         <v>38</v>
       </c>
       <c r="D246" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E246" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,10 +5156,10 @@
         <v>39</v>
       </c>
       <c r="D247" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E247" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,10 +5173,10 @@
         <v>40</v>
       </c>
       <c r="D248" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E248" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,10 +5190,10 @@
         <v>41</v>
       </c>
       <c r="D249" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E249" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5210,10 +5207,10 @@
         <v>42</v>
       </c>
       <c r="D250" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E250" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5227,10 +5224,10 @@
         <v>43</v>
       </c>
       <c r="D251" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E251" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,10 +5241,10 @@
         <v>44</v>
       </c>
       <c r="D252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E252" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,10 +5258,10 @@
         <v>45</v>
       </c>
       <c r="D253" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E253" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,10 +5275,10 @@
         <v>46</v>
       </c>
       <c r="D254" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E254" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,10 +5292,10 @@
         <v>47</v>
       </c>
       <c r="D255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E255" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,10 +5309,10 @@
         <v>50</v>
       </c>
       <c r="D256" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E256" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,10 +5326,10 @@
         <v>51</v>
       </c>
       <c r="D257" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E257" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,10 +5343,10 @@
         <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E258" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5363,10 +5360,10 @@
         <v>53</v>
       </c>
       <c r="D259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E259" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5380,10 +5377,10 @@
         <v>54</v>
       </c>
       <c r="D260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E260" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,10 +5394,10 @@
         <v>55</v>
       </c>
       <c r="D261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5414,10 +5411,10 @@
         <v>56</v>
       </c>
       <c r="D262" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E262" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,10 +5428,10 @@
         <v>57</v>
       </c>
       <c r="D263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E263" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5448,10 +5445,10 @@
         <v>58</v>
       </c>
       <c r="D264" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5465,10 +5462,10 @@
         <v>59</v>
       </c>
       <c r="D265" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,10 +5479,10 @@
         <v>122</v>
       </c>
       <c r="D266" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,10 +5496,10 @@
         <v>123</v>
       </c>
       <c r="D267" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,10 +5513,10 @@
         <v>124</v>
       </c>
       <c r="D268" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E268" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5533,10 +5530,10 @@
         <v>125</v>
       </c>
       <c r="D269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5550,10 +5547,10 @@
         <v>126</v>
       </c>
       <c r="D270" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -5567,10 +5564,10 @@
         <v>127</v>
       </c>
       <c r="D271" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5584,10 +5581,10 @@
         <v>128</v>
       </c>
       <c r="D272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E272" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5601,10 +5598,10 @@
         <v>129</v>
       </c>
       <c r="D273" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E273" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5618,10 +5615,10 @@
         <v>130</v>
       </c>
       <c r="D274" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5635,10 +5632,10 @@
         <v>131</v>
       </c>
       <c r="D275" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E275" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5652,10 +5649,10 @@
         <v>132</v>
       </c>
       <c r="D276" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E276" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5669,10 +5666,10 @@
         <v>133</v>
       </c>
       <c r="D277" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E277" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,10 +5683,10 @@
         <v>134</v>
       </c>
       <c r="D278" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E278" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,10 +5700,10 @@
         <v>135</v>
       </c>
       <c r="D279" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E279" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5720,10 +5717,10 @@
         <v>136</v>
       </c>
       <c r="D280" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E280" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5737,10 +5734,10 @@
         <v>137</v>
       </c>
       <c r="D281" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E281" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,10 +5751,10 @@
         <v>61</v>
       </c>
       <c r="D282" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E282" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5771,10 +5768,10 @@
         <v>35</v>
       </c>
       <c r="D283" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E283" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5788,10 +5785,10 @@
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E284" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5805,10 +5802,10 @@
         <v>38</v>
       </c>
       <c r="D285" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E285" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,10 +5819,10 @@
         <v>39</v>
       </c>
       <c r="D286" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E286" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5839,10 +5836,10 @@
         <v>40</v>
       </c>
       <c r="D287" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E287" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5856,10 +5853,10 @@
         <v>41</v>
       </c>
       <c r="D288" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E288" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5873,10 +5870,10 @@
         <v>42</v>
       </c>
       <c r="D289" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E289" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,10 +5887,10 @@
         <v>43</v>
       </c>
       <c r="D290" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E290" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5907,10 +5904,10 @@
         <v>44</v>
       </c>
       <c r="D291" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E291" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5921,13 +5918,13 @@
         <v>34</v>
       </c>
       <c r="C292" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D292" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E292" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5938,13 +5935,13 @@
         <v>34</v>
       </c>
       <c r="C293" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D293" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E293" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,13 +5952,13 @@
         <v>34</v>
       </c>
       <c r="C294" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D294" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E294" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5972,13 +5969,13 @@
         <v>34</v>
       </c>
       <c r="C295" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D295" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E295" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,13 +5986,13 @@
         <v>34</v>
       </c>
       <c r="C296" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D296" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E296" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6006,13 +6003,13 @@
         <v>34</v>
       </c>
       <c r="C297" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D297" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E297" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6023,13 +6020,13 @@
         <v>34</v>
       </c>
       <c r="C298" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D298" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E298" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6040,13 +6037,13 @@
         <v>34</v>
       </c>
       <c r="C299" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D299" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E299" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,13 +6054,13 @@
         <v>34</v>
       </c>
       <c r="C300" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D300" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E300" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,16 +6068,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>177</v>
+      </c>
+      <c r="C301" t="s">
+        <v>180</v>
+      </c>
+      <c r="D301" t="s">
         <v>178</v>
       </c>
-      <c r="C301" t="s">
-        <v>181</v>
-      </c>
-      <c r="D301" t="s">
-        <v>179</v>
-      </c>
       <c r="E301" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/moodys_datahub/data/data_products.xlsx
+++ b/moodys_datahub/data/data_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81CF769-7A8D-4472-BC6A-762F13207DB6}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_4B0D37945B70D6289F9A3B11595ED87656CCA927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072A19C1-F2A3-4D82-B17B-9BB0844E3505}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="4530" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="187">
   <si>
     <t>Data Product</t>
   </si>
@@ -572,6 +572,18 @@
   </si>
   <si>
     <t>6BNu42CgRuSBOqFmMmUAdw</t>
+  </si>
+  <si>
+    <t>Probability of Default</t>
+  </si>
+  <si>
+    <t>probability_of_default_by_moodys_analytics</t>
+  </si>
+  <si>
+    <t>REiuMSZWT5GJQgIZIQmD6A</t>
+  </si>
+  <si>
+    <t>IlbXwno7RM6H7et71MD3Uw</t>
   </si>
 </sst>
 </file>
@@ -953,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,6 +6092,40 @@
         <v>174</v>
       </c>
     </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>183</v>
+      </c>
+      <c r="C302" t="s">
+        <v>184</v>
+      </c>
+      <c r="D302" t="s">
+        <v>185</v>
+      </c>
+      <c r="E302" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>183</v>
+      </c>
+      <c r="C303" t="s">
+        <v>184</v>
+      </c>
+      <c r="D303" t="s">
+        <v>186</v>
+      </c>
+      <c r="E303" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E301" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
